--- a/Mapping Spec Git.xlsx
+++ b/Mapping Spec Git.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jsainsbury-my.sharepoint.com/personal/matt_wilkinson_sainsburys_co_uk/Documents/Documents/Presentations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt.wilkinson/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="8_{25619305-9E25-194B-84A2-6031FB7B74B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26A63814-6DD2-0D42-A534-51985B331A23}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF5A895-E28E-8348-915D-BE64AF5917C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{0DC20B23-C7A0-FB40-BE05-8EE6DBDC62EA}"/>
   </bookViews>
@@ -16,7 +16,9 @@
     <sheet name="New Markdown Format" sheetId="2" r:id="rId1"/>
     <sheet name="Feedback" sheetId="4" r:id="rId2"/>
     <sheet name="Target to Source" sheetId="3" r:id="rId3"/>
-    <sheet name="Original Spec" sheetId="1" r:id="rId4"/>
+    <sheet name="AGG_ITEM_PRIMARY_PLASTICS" sheetId="5" r:id="rId4"/>
+    <sheet name="FACT_ITEM_SPECIFICATION_COMPONE" sheetId="6" r:id="rId5"/>
+    <sheet name="Original Spec" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="167">
   <si>
     <t>Source System</t>
   </si>
@@ -293,9 +295,6 @@
     <t>Proposal for DFD  adding here FYR</t>
   </si>
   <si>
-    <t>Considering the Data flows sit at a parent level, replicating them per object isn't required per mapping spec.</t>
-  </si>
-  <si>
     <t>Could we consider providing table as TARGET → SOURCE moving target structure to left and map source columns than currently followed SOURCE → TARGET</t>
   </si>
   <si>
@@ -339,12 +338,6 @@
   </si>
   <si>
     <t>Does it have potential to automate the staging → RDV setup as well?</t>
-  </si>
-  <si>
-    <t>Would suggest, Product related info =&gt; confluence</t>
-  </si>
-  <si>
-    <t>Technical related =&gt; Github (hyperlinked in confluence)</t>
   </si>
   <si>
     <t>probably we can create tools to convert to excel/csv or something useful.</t>
@@ -400,18 +393,12 @@
     <t>Could we link the JIRA associated with the change within the mapping specification in github </t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
     <t>Matt W</t>
   </si>
   <si>
-    <t>Added Jira section as some objects are iterative and will have multiple tickets.</t>
-  </si>
-  <si>
     <t>Format</t>
   </si>
   <si>
@@ -427,9 +414,6 @@
     <t>Consistency</t>
   </si>
   <si>
-    <t>dbt is post mapping spec, the engineer would develop the dbt models based off the spec. however for understanding transform schemas dbt is excellent</t>
-  </si>
-  <si>
     <t>Date filter needs to accommodate for both 26 financial periods and 24 calendar months.</t>
   </si>
   <si>
@@ -485,13 +469,97 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>Lookup ALPHANUMERIC_SUPPLIER_CD to return ENTERPRISE_SUPPLIER_CD</t>
+  </si>
+  <si>
+    <t>Lookup against DIM_LOCATION for country</t>
+  </si>
+  <si>
+    <t>Apply recycled weight calculationn found in mapping step 3.</t>
+  </si>
+  <si>
+    <t>Direct map</t>
+  </si>
+  <si>
+    <t>AGG_ITEM_SPECIFICATION_COMPONENT</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>ITEM_WEIGHT</t>
+  </si>
+  <si>
+    <t>ITEM_RECYCLED_WEIGHT</t>
+  </si>
+  <si>
+    <t>recycled_weight/component_weight</t>
+  </si>
+  <si>
+    <t>RECYCLABILITY_PCT</t>
+  </si>
+  <si>
+    <t>Direct from BR</t>
+  </si>
+  <si>
+    <t>FACT_ITEM_SPECIFICATION_COMPONENT</t>
+  </si>
+  <si>
+    <t>CALNDR_PERIOD_NUM</t>
+  </si>
+  <si>
+    <t>See selection criteria</t>
+  </si>
+  <si>
+    <t>Concat of ITEM_CD, SPECIFICATION_VERSION_CD, PACKAGING_CD, COMPONENT_CD</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Added Jira section as some objects are iterative and will have multiple tickets. Change log, pr please add in jira number</t>
+  </si>
+  <si>
+    <t>Hera should we doing this, could be addressed through capabiltiies</t>
+  </si>
+  <si>
+    <t>Considering the Data flows sit at a parent level, replicating them per object isn't required per mapping spec. MK docs will serve individual flows.</t>
+  </si>
+  <si>
+    <t>dbt is post mapping spec, the engineer would develop the dbt models based off the spec. however for understanding transform schemas dbt is excellent.</t>
+  </si>
+  <si>
+    <t>Address Jekyll with MK docs, meeting with Ed &amp; Max</t>
+  </si>
+  <si>
+    <t>Look at code diff for tables, for complexity to understand changes. Could YAML provide a consistent table format, how does is link to the markdown file. Check in with Mike Holmes on this.</t>
+  </si>
+  <si>
+    <t>Github actions? Validate section headers, mandatory sections. Ask Drew via Slack for examples.</t>
+  </si>
+  <si>
+    <t>Not for the scope of V1 but there is potential for this.</t>
+  </si>
+  <si>
+    <t>Would suggest, Product related info =&gt; confluence, Technical related =&gt; Github (hyperlinked in confluence)</t>
+  </si>
+  <si>
+    <t>What does he want to get from BDD</t>
+  </si>
+  <si>
+    <t>Setup with Mithra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -539,8 +607,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,8 +677,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -632,12 +750,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -698,6 +857,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1066,19 +1278,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3E7C5-4D72-6E49-816E-9981505CED48}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="141" customWidth="1"/>
+    <col min="2" max="2" width="156.6640625" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
@@ -1102,7 +1314,7 @@
         <v>72</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>73</v>
@@ -1115,11 +1327,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>115</v>
+      <c r="B2" s="44" t="s">
+        <v>112</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>76</v>
@@ -1128,19 +1340,19 @@
         <v>77</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H2" s="15">
         <v>45037</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1162,7 +1374,9 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
@@ -1184,7 +1398,7 @@
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1211,28 +1425,28 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="44">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>81</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1240,10 +1454,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>81</v>
@@ -1252,7 +1466,7 @@
         <v>78</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1263,10 +1477,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>81</v>
@@ -1278,7 +1492,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1286,7 +1500,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="16"/>
@@ -1301,128 +1515,144 @@
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>96</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>78</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="A15" s="11">
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="C16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
       <c r="F16" s="11"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="I16" s="16" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="11" t="s">
-        <v>102</v>
-      </c>
+      <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -1432,49 +1662,65 @@
       <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
-        <v>12</v>
-      </c>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="11">
+        <v>13</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="D18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>14</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="C19" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="F19" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>78</v>
@@ -1482,66 +1728,64 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
-        <v>14</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>107</v>
+        <v>16</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
-        <v>16</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>78</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -1549,20 +1793,12 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
-        <v>17</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>78</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -1570,7 +1806,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1581,34 +1817,8 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
-        <v>19</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
-        <v>20</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="21">
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="C4:C6"/>
@@ -1622,21 +1832,14 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://sainsburys-confluence.valiantys.net/display/~sandeep.patil1" xr:uid="{DD1145ED-45AE-3D4B-A0FA-83AC83BD89EB}"/>
@@ -1649,13 +1852,12 @@
     <hyperlink ref="C12" r:id="rId8" display="https://sainsburys-confluence.valiantys.net/display/~Edward.Vella" xr:uid="{37B92598-0FC2-1243-A418-A0F2FE95FBBA}"/>
     <hyperlink ref="C13" r:id="rId9" display="https://sainsburys-confluence.valiantys.net/display/~Drew.Sonne1" xr:uid="{AAA55423-DD3B-A44D-97B5-B99AB86CF58C}"/>
     <hyperlink ref="C14" r:id="rId10" display="https://sainsburys-confluence.valiantys.net/display/~Mike.Holmes" xr:uid="{50661DE5-3BC1-6444-8A62-4769066725D8}"/>
-    <hyperlink ref="C15" r:id="rId11" display="https://sainsburys-confluence.valiantys.net/display/~Edward.Vella" xr:uid="{6ABD876A-28EF-AF47-ACD5-7AFDEF8AC011}"/>
-    <hyperlink ref="C18" r:id="rId12" display="https://sainsburys-confluence.valiantys.net/display/~Dan.Chowdhury" xr:uid="{EFCB0957-C609-5E45-AA10-2BDB3DCB4F1A}"/>
-    <hyperlink ref="C20" r:id="rId13" display="https://sainsburys-confluence.valiantys.net/display/~ashis.prasad" xr:uid="{BE6D107C-B37D-9A4D-AC18-64DAE9B89818}"/>
-    <hyperlink ref="C21" r:id="rId14" display="https://sainsburys-confluence.valiantys.net/display/~Talha.Chiklikar" xr:uid="{E459EE47-1483-D442-82B4-2627D80A1319}"/>
-    <hyperlink ref="C22" r:id="rId15" display="https://sainsburys-confluence.valiantys.net/display/~Max.Thorpe1" xr:uid="{F26561EE-EF5E-AA45-8C47-6DABC349BEE8}"/>
-    <hyperlink ref="C23" r:id="rId16" display="https://sainsburys-confluence.valiantys.net/display/~nil.bozkurt" xr:uid="{23C45C76-D3E9-FE44-B231-54EF62D64705}"/>
-    <hyperlink ref="C24" r:id="rId17" display="https://sainsburys-confluence.valiantys.net/display/~george.wooding" xr:uid="{838A0C91-01D0-E242-99AA-CF45F322507C}"/>
+    <hyperlink ref="C16" r:id="rId11" display="https://sainsburys-confluence.valiantys.net/display/~Dan.Chowdhury" xr:uid="{EFCB0957-C609-5E45-AA10-2BDB3DCB4F1A}"/>
+    <hyperlink ref="C18" r:id="rId12" display="https://sainsburys-confluence.valiantys.net/display/~ashis.prasad" xr:uid="{BE6D107C-B37D-9A4D-AC18-64DAE9B89818}"/>
+    <hyperlink ref="C19" r:id="rId13" display="https://sainsburys-confluence.valiantys.net/display/~Talha.Chiklikar" xr:uid="{E459EE47-1483-D442-82B4-2627D80A1319}"/>
+    <hyperlink ref="C20" r:id="rId14" display="https://sainsburys-confluence.valiantys.net/display/~Max.Thorpe1" xr:uid="{F26561EE-EF5E-AA45-8C47-6DABC349BEE8}"/>
+    <hyperlink ref="C21" r:id="rId15" display="https://sainsburys-confluence.valiantys.net/display/~nil.bozkurt" xr:uid="{23C45C76-D3E9-FE44-B231-54EF62D64705}"/>
+    <hyperlink ref="C22" r:id="rId16" display="https://sainsburys-confluence.valiantys.net/display/~george.wooding" xr:uid="{838A0C91-01D0-E242-99AA-CF45F322507C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1663,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B998930-761E-0740-A8E1-3177EC5D4273}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1681,7 +1883,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>6</v>
@@ -1693,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
@@ -1707,7 +1909,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>56</v>
@@ -1727,7 +1929,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>47</v>
@@ -1741,19 +1943,19 @@
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -1764,9 +1966,11 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1778,37 +1982,43 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1818,7 +2028,9 @@
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
@@ -1832,7 +2044,9 @@
     <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
@@ -1851,13 +2065,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>23</v>
@@ -1871,7 +2085,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>56</v>
@@ -1888,10 +2102,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>56</v>
@@ -1900,7 +2114,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1911,7 +2125,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>56</v>
@@ -1944,10 +2158,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>138</v>
+      </c>
       <c r="C15" s="21" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>48</v>
@@ -1960,9 +2178,15 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>138</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1980,7 +2204,9 @@
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>47</v>
       </c>
@@ -1992,20 +2218,44 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
@@ -2014,7 +2264,9 @@
       <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>47</v>
       </c>
@@ -2026,31 +2278,43 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>7</v>
+        <v>125</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2058,42 +2322,80 @@
         <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2101,11 +2403,693 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBDCCDA-637E-6442-AD69-A48C05CC5BF6}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50F088E-367F-9940-B1EA-EF14007FEB5D}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DAE332-D970-0340-9EFD-925DF9362F84}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C23"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Mapping Spec Git.xlsx
+++ b/Mapping Spec Git.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt.wilkinson/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jsainsbury-my.sharepoint.com/personal/matt_wilkinson_sainsburys_co_uk/Documents/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF5A895-E28E-8348-915D-BE64AF5917C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{AEF5A895-E28E-8348-915D-BE64AF5917C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5689961D-F6E4-1043-9E81-696FD8718C69}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{0DC20B23-C7A0-FB40-BE05-8EE6DBDC62EA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{0DC20B23-C7A0-FB40-BE05-8EE6DBDC62EA}"/>
   </bookViews>
   <sheets>
     <sheet name="New Markdown Format" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="168">
   <si>
     <t>Source System</t>
   </si>
@@ -486,18 +486,12 @@
     <t>AGG_ITEM_SPECIFICATION_COMPONENT</t>
   </si>
   <si>
-    <t>sum</t>
-  </si>
-  <si>
     <t>ITEM_WEIGHT</t>
   </si>
   <si>
     <t>ITEM_RECYCLED_WEIGHT</t>
   </si>
   <si>
-    <t>recycled_weight/component_weight</t>
-  </si>
-  <si>
     <t>RECYCLABILITY_PCT</t>
   </si>
   <si>
@@ -553,6 +547,15 @@
   </si>
   <si>
     <t>Setup with Mithra</t>
+  </si>
+  <si>
+    <t>Total Tonnage(with Recycling_Advice_Icon filtered/Total Tonnage</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Recycled_Weight/Component_Weight</t>
   </si>
 </sst>
 </file>
@@ -796,7 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -831,17 +834,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -878,14 +870,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,6 +895,27 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1281,7 +1287,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1327,10 +1333,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="44">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="36" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -1340,7 +1346,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>115</v>
@@ -1352,7 +1358,7 @@
         <v>45037</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1375,60 +1381,60 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="37" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
-        <v>158</v>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="A6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="44">
+      <c r="A7" s="36">
         <v>4</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="36" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1438,7 +1444,7 @@
         <v>81</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>115</v>
@@ -1479,20 +1485,20 @@
       <c r="B9" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="37" t="s">
         <v>78</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16" t="s">
-        <v>159</v>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1502,13 +1508,13 @@
       <c r="B10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -1527,12 +1533,12 @@
         <v>78</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1557,7 +1563,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1582,7 +1588,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1607,7 +1613,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1628,38 +1634,38 @@
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+      <c r="A16" s="37">
         <v>12</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="37" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16" t="s">
-        <v>165</v>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
@@ -1683,7 +1689,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1703,7 +1709,7 @@
         <v>78</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -1729,7 +1735,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1772,7 +1778,7 @@
         <v>78</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -1819,6 +1825,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="C4:C6"/>
@@ -1832,14 +1846,6 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://sainsburys-confluence.valiantys.net/display/~sandeep.patil1" xr:uid="{DD1145ED-45AE-3D4B-A0FA-83AC83BD89EB}"/>
@@ -1867,7 +1873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B998930-761E-0740-A8E1-3177EC5D4273}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2138,10 +2144,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2158,13 +2164,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="16" t="s">
         <v>137</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2178,13 +2184,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="17" t="s">
         <v>138</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2407,309 +2413,317 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="75" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="F1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="G1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="B3" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="B4" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="29" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="B6" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="C6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="B7" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="29" t="s">
+      <c r="C7" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="B8" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="29" t="s">
+      <c r="C8" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="B9" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="C9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="B10" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="C10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>148</v>
+      <c r="D13" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2721,361 +2735,361 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50F088E-367F-9940-B1EA-EF14007FEB5D}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="G1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="40" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="D8" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="40" t="s">
+      <c r="B9" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="42" t="s">
+      <c r="B10" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="40" t="s">
+      <c r="B11" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="40" t="s">
+      <c r="B12" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="40" t="s">
+      <c r="B13" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="40" t="s">
+      <c r="B14" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="40" t="s">
+      <c r="B15" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="40" t="s">
+      <c r="D15" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="32" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3104,45 +3118,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">

--- a/Mapping Spec Git.xlsx
+++ b/Mapping Spec Git.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jsainsbury-my.sharepoint.com/personal/matt_wilkinson_sainsburys_co_uk/Documents/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{AEF5A895-E28E-8348-915D-BE64AF5917C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5689961D-F6E4-1043-9E81-696FD8718C69}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{AEF5A895-E28E-8348-915D-BE64AF5917C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{343C18F8-C319-0E48-A14F-998F921DF336}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{0DC20B23-C7A0-FB40-BE05-8EE6DBDC62EA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{0DC20B23-C7A0-FB40-BE05-8EE6DBDC62EA}"/>
   </bookViews>
   <sheets>
     <sheet name="New Markdown Format" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="167">
   <si>
     <t>Source System</t>
   </si>
@@ -394,9 +394,6 @@
   </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Matt W</t>
   </si>
   <si>
     <t>Format</t>
@@ -895,6 +892,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,16 +913,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1286,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3E7C5-4D72-6E49-816E-9981505CED48}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1346,19 +1343,17 @@
         <v>77</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="11" t="s">
         <v>114</v>
       </c>
+      <c r="G2" s="11"/>
       <c r="H2" s="15">
         <v>45037</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1381,54 +1376,54 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="37">
+      <c r="A4" s="41">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="41" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37" t="s">
-        <v>156</v>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="A6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="36">
@@ -1444,10 +1439,10 @@
         <v>81</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1460,7 +1455,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>87</v>
@@ -1472,7 +1467,7 @@
         <v>78</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1485,20 +1480,20 @@
       <c r="B9" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="41" t="s">
         <v>78</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37" t="s">
-        <v>157</v>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1508,13 +1503,13 @@
       <c r="B10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -1533,12 +1528,12 @@
         <v>78</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1558,12 +1553,12 @@
         <v>78</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1583,12 +1578,12 @@
         <v>78</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1608,12 +1603,12 @@
         <v>78</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1634,38 +1629,38 @@
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="37">
+      <c r="A16" s="41">
         <v>12</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="41" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37" t="s">
-        <v>163</v>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
@@ -1684,12 +1679,12 @@
         <v>78</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1709,7 +1704,7 @@
         <v>78</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -1735,7 +1730,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1755,7 +1750,7 @@
         <v>78</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -1778,7 +1773,7 @@
         <v>78</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -1825,14 +1820,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="C4:C6"/>
@@ -1846,6 +1833,14 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://sainsburys-confluence.valiantys.net/display/~sandeep.patil1" xr:uid="{DD1145ED-45AE-3D4B-A0FA-83AC83BD89EB}"/>
@@ -1889,7 +1884,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>6</v>
@@ -1901,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
@@ -1915,7 +1910,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>56</v>
@@ -1935,7 +1930,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>47</v>
@@ -1949,19 +1944,19 @@
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -1972,10 +1967,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>47</v>
@@ -1989,22 +1984,22 @@
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -2012,19 +2007,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2035,7 +2030,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>47</v>
@@ -2051,7 +2046,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>48</v>
@@ -2071,13 +2066,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>23</v>
@@ -2091,7 +2086,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>56</v>
@@ -2108,10 +2103,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>56</v>
@@ -2120,7 +2115,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -2131,7 +2126,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>56</v>
@@ -2165,13 +2160,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>48</v>
@@ -2185,13 +2180,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -2211,7 +2206,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>47</v>
@@ -2225,13 +2220,13 @@
     </row>
     <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>48</v>
@@ -2245,13 +2240,13 @@
     </row>
     <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>48</v>
@@ -2271,7 +2266,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>47</v>
@@ -2285,13 +2280,13 @@
     </row>
     <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>48</v>
@@ -2305,13 +2300,13 @@
     </row>
     <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>48</v>
@@ -2340,7 +2335,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2351,16 +2346,16 @@
         <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2371,16 +2366,16 @@
         <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2391,16 +2386,16 @@
         <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2455,13 +2450,13 @@
         <v>56</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>9</v>
@@ -2478,13 +2473,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>9</v>
@@ -2501,13 +2496,13 @@
         <v>56</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>9</v>
@@ -2524,13 +2519,13 @@
         <v>56</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>9</v>
@@ -2547,13 +2542,13 @@
         <v>56</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>9</v>
@@ -2570,13 +2565,13 @@
         <v>56</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>144</v>
-      </c>
       <c r="D7" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>9</v>
@@ -2593,13 +2588,13 @@
         <v>56</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>9</v>
@@ -2616,13 +2611,13 @@
         <v>56</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>9</v>
@@ -2639,13 +2634,13 @@
         <v>56</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>9</v>
@@ -2662,13 +2657,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>9</v>
@@ -2685,21 +2680,21 @@
         <v>56</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="43" t="s">
+      <c r="F12" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="38" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2708,22 +2703,22 @@
         <v>56</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>138</v>
+        <v>142</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2735,7 +2730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50F088E-367F-9940-B1EA-EF14007FEB5D}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2778,13 +2773,13 @@
         <v>56</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>9</v>
@@ -2801,13 +2796,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>9</v>
@@ -2824,13 +2819,13 @@
         <v>56</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>9</v>
@@ -2845,13 +2840,13 @@
         <v>56</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>9</v>
@@ -2868,13 +2863,13 @@
         <v>56</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>9</v>
@@ -2891,13 +2886,13 @@
         <v>56</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>9</v>
@@ -2914,13 +2909,13 @@
         <v>56</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="D8" s="32" t="s">
         <v>149</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>150</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>9</v>
@@ -2937,13 +2932,13 @@
         <v>56</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>9</v>
@@ -2952,7 +2947,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2960,13 +2955,13 @@
         <v>56</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>9</v>
@@ -2983,13 +2978,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>9</v>
@@ -3006,13 +3001,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>9</v>
@@ -3029,13 +3024,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>9</v>
@@ -3052,13 +3047,13 @@
         <v>56</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>9</v>
@@ -3075,13 +3070,13 @@
         <v>56</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>9</v>
@@ -3118,45 +3113,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">

--- a/Mapping Spec Git.xlsx
+++ b/Mapping Spec Git.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jsainsbury-my.sharepoint.com/personal/matt_wilkinson_sainsburys_co_uk/Documents/Documents/GitHub/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt.wilkinson/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{AEF5A895-E28E-8348-915D-BE64AF5917C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{343C18F8-C319-0E48-A14F-998F921DF336}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C544CDC3-1DE3-DA4A-B2B5-4BE2E7FA3FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{0DC20B23-C7A0-FB40-BE05-8EE6DBDC62EA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{0DC20B23-C7A0-FB40-BE05-8EE6DBDC62EA}"/>
   </bookViews>
   <sheets>
     <sheet name="New Markdown Format" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="171">
   <si>
     <t>Source System</t>
   </si>
@@ -553,6 +553,18 @@
   </si>
   <si>
     <t>Recycled_Weight/Component_Weight</t>
+  </si>
+  <si>
+    <t>GROUP_SUPPLIER_CD</t>
+  </si>
+  <si>
+    <t>See step 1</t>
+  </si>
+  <si>
+    <t>See step 2</t>
+  </si>
+  <si>
+    <t>See step 7</t>
   </si>
 </sst>
 </file>
@@ -608,25 +620,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -634,16 +627,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -690,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -778,25 +791,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -846,62 +846,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -913,6 +879,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1283,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3E7C5-4D72-6E49-816E-9981505CED48}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1330,10 +1300,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="36">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="28" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -1380,56 +1350,56 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="41">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="29" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41" t="s">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="A6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="36">
+      <c r="A7" s="28">
         <v>4</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="28" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1480,19 +1450,19 @@
       <c r="B9" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="29" t="s">
         <v>78</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41" t="s">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1503,13 +1473,13 @@
       <c r="B10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -1629,38 +1599,38 @@
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="41">
+      <c r="A16" s="29">
         <v>12</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="29" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41" t="s">
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
@@ -1820,6 +1790,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="C4:C6"/>
@@ -1833,14 +1811,6 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://sainsburys-confluence.valiantys.net/display/~sandeep.patil1" xr:uid="{DD1145ED-45AE-3D4B-A0FA-83AC83BD89EB}"/>
@@ -2407,8 +2377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBDCCDA-637E-6442-AD69-A48C05CC5BF6}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2422,302 +2392,302 @@
     <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="24" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="E4" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B5" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="C5" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="E5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B6" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="C6" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="E6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B7" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="C7" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B8" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="C8" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="E8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B9" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="26" t="s">
+      <c r="C9" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="E12" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B13" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="37" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2746,345 +2716,345 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="32" t="s">
+      <c r="E2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="32" t="s">
+      <c r="E3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="34"/>
+      <c r="E4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="32" t="s">
+      <c r="E5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="32" t="s">
+      <c r="E6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="32" t="s">
+      <c r="E7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="32" t="s">
+      <c r="E8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="32" t="s">
+      <c r="E9" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="32" t="s">
+      <c r="E10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="32" t="s">
+      <c r="E11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="32" t="s">
+      <c r="E12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="32" t="s">
+      <c r="E13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="32" t="s">
+      <c r="E14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="32" t="s">
+      <c r="E15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3113,45 +3083,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">

--- a/Mapping Spec Git.xlsx
+++ b/Mapping Spec Git.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt.wilkinson/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C544CDC3-1DE3-DA4A-B2B5-4BE2E7FA3FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F4B06E-C4F5-914F-9B7D-1A6F87A11133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{0DC20B23-C7A0-FB40-BE05-8EE6DBDC62EA}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="169">
   <si>
     <t>Source System</t>
   </si>
@@ -489,9 +489,6 @@
     <t>ITEM_RECYCLED_WEIGHT</t>
   </si>
   <si>
-    <t>RECYCLABILITY_PCT</t>
-  </si>
-  <si>
     <t>Direct from BR</t>
   </si>
   <si>
@@ -544,9 +541,6 @@
   </si>
   <si>
     <t>Setup with Mithra</t>
-  </si>
-  <si>
-    <t>Total Tonnage(with Recycling_Advice_Icon filtered/Total Tonnage</t>
   </si>
   <si>
     <t>Sum</t>
@@ -571,7 +565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -641,19 +635,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -796,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -881,8 +862,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1313,7 +1292,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>114</v>
@@ -1323,7 +1302,7 @@
         <v>45037</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1346,7 +1325,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1369,7 +1348,7 @@
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1409,7 +1388,7 @@
         <v>81</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>114</v>
@@ -1463,7 +1442,7 @@
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1498,12 +1477,12 @@
         <v>78</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1528,7 +1507,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1553,7 +1532,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1578,7 +1557,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1618,7 +1597,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1654,7 +1633,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1674,7 +1653,7 @@
         <v>78</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -1700,7 +1679,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1743,7 +1722,7 @@
         <v>78</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -2375,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBDCCDA-637E-6442-AD69-A48C05CC5BF6}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2446,10 +2425,10 @@
         <v>142</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>9</v>
@@ -2541,7 +2520,7 @@
         <v>143</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>9</v>
@@ -2564,7 +2543,7 @@
         <v>144</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>9</v>
@@ -2587,7 +2566,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>9</v>
@@ -2610,7 +2589,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>9</v>
@@ -2633,7 +2612,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>9</v>
@@ -2656,7 +2635,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>9</v>
@@ -2666,29 +2645,6 @@
       </c>
       <c r="G12" s="35" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2743,13 +2699,13 @@
         <v>56</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>9</v>
@@ -2766,13 +2722,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>9</v>
@@ -2789,13 +2745,13 @@
         <v>56</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>9</v>
@@ -2810,13 +2766,13 @@
         <v>56</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>9</v>
@@ -2833,13 +2789,13 @@
         <v>56</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>9</v>
@@ -2856,13 +2812,13 @@
         <v>56</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>9</v>
@@ -2879,13 +2835,13 @@
         <v>56</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="D8" s="24" t="s">
         <v>148</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>149</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>9</v>
@@ -2902,13 +2858,13 @@
         <v>56</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>9</v>
@@ -2925,13 +2881,13 @@
         <v>56</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>9</v>
@@ -2948,13 +2904,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>9</v>
@@ -2971,13 +2927,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>9</v>
@@ -2994,13 +2950,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>9</v>
@@ -3017,13 +2973,13 @@
         <v>56</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>9</v>
@@ -3040,13 +2996,13 @@
         <v>56</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>9</v>

--- a/Mapping Spec Git.xlsx
+++ b/Mapping Spec Git.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt.wilkinson/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F4B06E-C4F5-914F-9B7D-1A6F87A11133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D106701-5C9E-2045-8302-403F9EF45B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{0DC20B23-C7A0-FB40-BE05-8EE6DBDC62EA}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="170">
   <si>
     <t>Source System</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>See step 7</t>
+  </si>
+  <si>
+    <t>SALES VOLUME * ITEM_RECYCLED_WEIGHT/1000000</t>
   </si>
 </sst>
 </file>
@@ -849,6 +852,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,8 +865,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1329,50 +1332,50 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="31" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="A6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
@@ -1429,19 +1432,19 @@
       <c r="B9" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="31" t="s">
         <v>78</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29" t="s">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1452,13 +1455,13 @@
       <c r="B10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -1578,38 +1581,38 @@
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="29">
+      <c r="A16" s="31">
         <v>12</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="31" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29" t="s">
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
@@ -1769,14 +1772,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="C4:C6"/>
@@ -1790,6 +1785,14 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://sainsburys-confluence.valiantys.net/display/~sandeep.patil1" xr:uid="{DD1145ED-45AE-3D4B-A0FA-83AC83BD89EB}"/>
@@ -2357,7 +2360,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2372,278 +2375,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="35" t="s">
+      <c r="E2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="35" t="s">
+      <c r="E3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="35" t="s">
+      <c r="E4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="35" t="s">
+      <c r="E5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="35" t="s">
+      <c r="E6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="35" t="s">
+      <c r="E7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="35" t="s">
+      <c r="E8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="35" t="s">
+      <c r="E9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="35" t="s">
+      <c r="E10" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="35" t="s">
+      <c r="E11" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="35" t="s">
+      <c r="D12" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3039,45 +3042,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">

--- a/Mapping Spec Git.xlsx
+++ b/Mapping Spec Git.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt.wilkinson/Documents/GitHub/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D106701-5C9E-2045-8302-403F9EF45B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBFCFA7-668E-A349-BC50-8AE99C7844A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{0DC20B23-C7A0-FB40-BE05-8EE6DBDC62EA}"/>
   </bookViews>
@@ -480,9 +480,6 @@
     <t>Direct map</t>
   </si>
   <si>
-    <t>AGG_ITEM_SPECIFICATION_COMPONENT</t>
-  </si>
-  <si>
     <t>ITEM_WEIGHT</t>
   </si>
   <si>
@@ -562,6 +559,9 @@
   </si>
   <si>
     <t>SALES VOLUME * ITEM_RECYCLED_WEIGHT/1000000</t>
+  </si>
+  <si>
+    <t>AGG_ITEM_PRIMARY_PLASTICS</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1295,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>114</v>
@@ -1305,7 +1305,7 @@
         <v>45037</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1328,7 +1328,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1351,7 +1351,7 @@
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1391,7 +1391,7 @@
         <v>81</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>114</v>
@@ -1445,7 +1445,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1480,12 +1480,12 @@
         <v>78</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1510,7 +1510,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1535,7 +1535,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1560,7 +1560,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1600,7 +1600,7 @@
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1636,7 +1636,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1656,7 +1656,7 @@
         <v>78</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -1682,7 +1682,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1725,7 +1725,7 @@
         <v>78</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -1772,6 +1772,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="C4:C6"/>
@@ -1785,14 +1793,6 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://sainsburys-confluence.valiantys.net/display/~sandeep.patil1" xr:uid="{DD1145ED-45AE-3D4B-A0FA-83AC83BD89EB}"/>
@@ -2360,7 +2360,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2402,7 +2402,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>8</v>
@@ -2425,13 +2425,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C3" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>165</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>166</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>9</v>
@@ -2448,7 +2448,7 @@
         <v>56</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>23</v>
@@ -2471,7 +2471,7 @@
         <v>56</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>27</v>
@@ -2494,7 +2494,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>30</v>
@@ -2517,13 +2517,13 @@
         <v>56</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>143</v>
-      </c>
       <c r="D7" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>9</v>
@@ -2540,13 +2540,13 @@
         <v>56</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>9</v>
@@ -2563,13 +2563,13 @@
         <v>56</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>9</v>
@@ -2586,13 +2586,13 @@
         <v>56</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>9</v>
@@ -2609,13 +2609,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>9</v>
@@ -2632,13 +2632,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>9</v>
@@ -2702,13 +2702,13 @@
         <v>56</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>9</v>
@@ -2725,13 +2725,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>9</v>
@@ -2748,13 +2748,13 @@
         <v>56</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>9</v>
@@ -2769,13 +2769,13 @@
         <v>56</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>9</v>
@@ -2792,13 +2792,13 @@
         <v>56</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>9</v>
@@ -2815,13 +2815,13 @@
         <v>56</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>9</v>
@@ -2838,13 +2838,13 @@
         <v>56</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="D8" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>148</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>9</v>
@@ -2861,13 +2861,13 @@
         <v>56</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>123</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>9</v>
@@ -2884,13 +2884,13 @@
         <v>56</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>9</v>
@@ -2907,13 +2907,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>9</v>
@@ -2930,13 +2930,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>9</v>
@@ -2953,13 +2953,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>9</v>
@@ -2976,13 +2976,13 @@
         <v>56</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>9</v>
@@ -2999,13 +2999,13 @@
         <v>56</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>9</v>
